--- a/数据整理/stocks/A股/深证主板/000636-风华高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/000636-风华高科.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5954,7 +5955,6 @@
           <t>新疆前海联合泳隽灵活配置混合C</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
           <t>88.55</t>
@@ -5986,7 +5986,6 @@
           <t>东吴悦秀纯债债券C</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
           <t>93.09</t>
@@ -6002,6 +6001,1314 @@
       </c>
       <c r="H72" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.9060</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3601</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8143</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9060</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6645</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6598</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4840</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3019</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2492</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2116</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1571</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010170</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银证券鑫瑞6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>151002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河收益债券</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005386</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银河睿达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001110</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001111</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001122</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华弘利灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.47</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010171</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银证券鑫瑞6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>24.20</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005387</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银河睿达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001123</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华弘利灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.47</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000636-风华高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/000636-风华高科.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7314,4 +7315,894 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2591</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0883</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7687</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6974</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4449</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3320</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2787</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2047</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1857</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1533</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1283</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000636-风华高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/000636-风华高科.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8205,4 +8206,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>71</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>73</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000636-风华高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/000636-风华高科.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8214,7 +8215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8225,17 +8226,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8245,14 +8266,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.07</v>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3229</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -8261,14 +8304,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>33</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17.69</v>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7024</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -8277,14 +8342,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>71</v>
-      </c>
-      <c r="D4" t="n">
-        <v>38.02</v>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0738</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -8293,13 +8380,1213 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8942</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7655</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6553</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>70.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5135</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5053</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3282</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2980</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2658</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>70.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2238</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001146</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧瑾源灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004734</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>34.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001147</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧瑾源灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002018</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华弘安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.37</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011052</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华弘裕一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>34.60</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004735</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>29.99</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011053</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华弘裕一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002019</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华弘安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21.37</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>71</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>73</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>39.18</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000636-风华高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/000636-风华高科.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9485,7 +9486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9496,17 +9497,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9516,14 +9537,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>32</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.64</v>
+          <t>009312</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5206</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -9532,14 +9575,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.07</v>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4540</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -9548,14 +9613,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>33</v>
-      </c>
-      <c r="D4" t="n">
-        <v>17.69</v>
+          <t>001146</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧瑾源灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1581</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -9564,14 +9651,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>71</v>
-      </c>
-      <c r="D5" t="n">
-        <v>38.02</v>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1519</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -9580,13 +9689,355 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009313</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001147</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧瑾源灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004734</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>32.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004735</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>32.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>71</v>
+      </c>
+      <c r="D6" t="n">
+        <v>38.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>73</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>39.18</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000636-风华高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/000636-风华高科.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9920,7 +9921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9931,17 +9932,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9951,14 +9972,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>009312</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5109</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.61</v>
       </c>
     </row>
     <row r="3">
@@ -9967,14 +10010,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>32</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.64</v>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -9983,14 +10048,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.07</v>
+          <t>001146</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧瑾源灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>32.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -9999,14 +10086,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>33</v>
-      </c>
-      <c r="D5" t="n">
-        <v>17.69</v>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -10015,14 +10124,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>71</v>
-      </c>
-      <c r="D6" t="n">
-        <v>38.02</v>
+          <t>009313</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -10031,13 +10162,183 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001147</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧瑾源灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>32.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17.69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>71</v>
+      </c>
+      <c r="D7" t="n">
+        <v>38.02</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>73</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>39.18</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000636-风华高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/000636-风华高科.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1.61</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>10.64</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
-        <v>7.07</v>
+        <v>10.64</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>17.69</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
-        <v>38.02</v>
+        <v>17.69</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>71</v>
+      </c>
+      <c r="D8" t="n">
+        <v>38.02</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>73</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>39.18</v>
       </c>
     </row>
@@ -600,6 +617,212 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3928</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009312</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3718</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009313</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -883,7 +1106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1317,7 +1540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2587,7 +2810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3477,7 +3700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4785,7 +5008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7525,7 +7748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000636-风华高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/000636-风华高科.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1.61</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>10.64</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
-        <v>7.07</v>
+        <v>10.64</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>17.69</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
-        <v>38.02</v>
+        <v>17.69</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2852 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>71</v>
+      </c>
+      <c r="D9" t="n">
+        <v>38.02</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>73</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>39.18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.0609</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>140.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.8165</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.8753</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.7868</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4254</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0110</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9643</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8993</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8434</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7659</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6759</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6360</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5115</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5016</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>50.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4578</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3716</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3711</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3206</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2552</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2526</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2297</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006265</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>红土创新新科技股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2060</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2052</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2041</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1872</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1767</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1178</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002945</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001028</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安物联网主题股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008726</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>平安添裕债券A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>14.13</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001716</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>26.33</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001146</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中欧瑾源灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001147</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中欧瑾源灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001997</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>700003</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>平安策略先锋混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004558</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>610006</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>信达澳银产业升级混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004390</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005599</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>79.65</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004391</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>79.65</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>167003</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>平安鼎弘混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010229</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>平安鼎弘混合（LOF）D</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005600</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>25.83</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008727</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>平安添裕债券C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010228</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>平安鼎弘混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>25.83</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>004559</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -683,26 +3522,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.43</t>
+          <t>9.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.61</t>
+          <t>92.34</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3928</t>
+          <t>0.4439</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -721,26 +3560,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.45</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.63</t>
+          <t>92.08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3718</t>
+          <t>0.4410</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -759,26 +3598,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.63</t>
+          <t>92.08</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0651</t>
+          <t>0.0784</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -797,24 +3636,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.61</t>
+          <t>92.34</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -823,6 +3664,212 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3928</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009312</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3718</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009313</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1106,7 +4153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1540,7 +4587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2810,7 +5857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3700,7 +6747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5008,7 +8055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7746,2826 +10793,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H74"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002692</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国创新科技混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>100.01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.06</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>9.0609</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009863</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国创新趋势股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>140.39</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.67</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.28</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>8.8165</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000362</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰聚信价值优势灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>79.25</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>3.8753</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>100060</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国高新技术产业混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>53.79</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>3.7868</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501077</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>23.60</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>98.95</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.4254</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>020010</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国泰金牛创新混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>20.76</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.0110</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000363</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国泰聚信价值优势灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>19.72</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.9643</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007345</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富国科技创新灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>12.63</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.12</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.12</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.8993</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008415</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国泰大制造两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>21.68</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.8434</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007835</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国泰鑫睿混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>18.28</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>79.41</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.7659</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>160918</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>大成中小盘混合(LOF)A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>16.73</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>82.27</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.6759</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>481010</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>工银瑞信中小盘混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>25.04</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.08</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.6360</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>000793</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>工银高端制造行业股票</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>17.05</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.5115</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>481015</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>工银主题策略混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>16.50</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.5016</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009774</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>财通资管优选回报一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>18.31</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>50.05</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.4578</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002450</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>平安睿享文娱灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>9.91</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.3716</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>005244</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>国泰聚优价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>8.69</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.3711</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>512330</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>南方中证500信息技术指数ETF</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>10.51</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>99.47</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.3206</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>008274</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>大成行业先锋混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>6.38</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.2552</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>410001</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>华富竞争力优选混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>89.56</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>6.46</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.2526</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>006100</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>平安优势产业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>93.86</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.2297</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>006265</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>红土创新新科技股票</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>94.92</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.2060</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>001387</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中融新经济灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.2052</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>006101</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>平安优势产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>93.86</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.2041</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>501201</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>99.46</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.1872</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>168207</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>中融创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>90.44</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.1767</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>009490</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>泰康科技创新一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>95.05</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.1685</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>007713</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>华富科技动能混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>89.54</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>9.68</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.1481</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>002451</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>平安睿享文娱灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.1178</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>002945</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>大成盛世精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>94.59</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.1119</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>001028</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>华安物联网主题股票</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>7.11</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.1074</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>005823</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>泰康颐享混合A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>7.34</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>29.84</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.1072</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>008726</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>平安添裕债券A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>14.13</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>22.38</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.1003</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>001716</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>工银新趋势灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>90.77</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0898</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>004265</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>金鹰民丰回报定期开放混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>26.33</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0891</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>001701</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>中融产业升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0824</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>001146</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>中欧瑾源灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>21.89</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0743</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>011120</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>富国创新科技混合C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>9.06</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0680</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>001147</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>中欧瑾源灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>6.46</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>21.89</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0678</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>007893</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>平安估值精选混合A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>94.79</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0652</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>001997</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>工银新趋势灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>90.77</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0620</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>002601</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>中银证券价值精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>92.16</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0572</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>700003</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>平安策略先锋混合</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>79.25</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0508</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>001388</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>中融新经济灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0496</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>004558</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>汇安丰裕灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>94.79</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0471</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>005824</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>泰康颐享混合C</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>29.84</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0466</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>009671</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>平安恒泽混合A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>6.73</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>21.62</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0451</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>005245</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>国泰聚优价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0414</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>610004</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>信达澳银中小盘混合</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0410</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>610006</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>信达澳银产业升级混合</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0405</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>004390</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>平安转型创新灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>87.48</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0400</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>005599</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>汇安量化优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0372</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>001664</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>平安鑫安混合A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>21.47</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0336</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>007049</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>平安鑫安混合E</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>21.47</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0336</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>008275</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>大成行业先锋混合C</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0288</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>000767</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>华富国泰民安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>71.62</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0254</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>007894</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>平安估值精选混合C</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>94.79</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0186</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>006801</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>新疆前海联合科技先锋混合A</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>79.65</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0168</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>004391</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>平安转型创新灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>87.48</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0158</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>009672</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>平安恒泽混合C</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>21.62</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0153</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>006802</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>新疆前海联合科技先锋混合C</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>79.65</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>006783</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>红土创新中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>167003</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>平安鼎弘混合（LOF）A</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>20.03</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>010229</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>平安鼎弘混合（LOF）D</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>20.03</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>005600</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>汇安量化优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>001665</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>平安鑫安混合C</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>21.47</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>004913</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>中银证券聚瑞混合A</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>25.83</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>006784</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>红土创新中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>008727</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>平安添裕债券C</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>22.38</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>011159</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>大成中小盘混合(LOF)C</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>82.27</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>010228</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>平安鼎弘混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>20.03</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>004914</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>中银证券聚瑞混合C</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>25.83</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>004559</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>汇安丰裕灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>94.79</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>